--- a/data/predictions/crim_justice/death_penalty/leveled/independent.xlsx
+++ b/data/predictions/crim_justice/death_penalty/leveled/independent.xlsx
@@ -748,10 +748,10 @@
         <v>2019</v>
       </c>
       <c r="C34">
-        <v>0.6204768039409633</v>
+        <v>0.5799714303139057</v>
       </c>
       <c r="E34">
-        <v>0.3795231865055815</v>
+        <v>0.4201302284239438</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -759,10 +759,10 @@
         <v>2020</v>
       </c>
       <c r="C35">
-        <v>0.6356874726570224</v>
+        <v>0.6303998814332621</v>
       </c>
       <c r="E35">
-        <v>0.3643125124869289</v>
+        <v>0.3698080557493846</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -770,10 +770,10 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.6223596243813533</v>
+        <v>0.631119936506897</v>
       </c>
       <c r="E36">
-        <v>0.3776403512139486</v>
+        <v>0.3691101904853819</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -781,10 +781,10 @@
         <v>2022</v>
       </c>
       <c r="C37">
-        <v>0.6349932866823874</v>
+        <v>0.6154867230137342</v>
       </c>
       <c r="E37">
-        <v>0.3650066835717217</v>
+        <v>0.3847931922489752</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -792,10 +792,10 @@
         <v>2023</v>
       </c>
       <c r="C38">
-        <v>0.6240097430991903</v>
+        <v>0.6018194686413624</v>
       </c>
       <c r="E38">
-        <v>0.3759902176725198</v>
+        <v>0.3985669111640125</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -803,10 +803,10 @@
         <v>2024</v>
       </c>
       <c r="C39">
-        <v>0.6345107896414495</v>
+        <v>0.6528265121112341</v>
       </c>
       <c r="E39">
-        <v>0.3654891657004748</v>
+        <v>0.3476098285567081</v>
       </c>
     </row>
   </sheetData>
